--- a/data/latency.xlsx
+++ b/data/latency.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livionmbp/Documents/GitHub/Sources/buffer/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Sources/buffer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFF585-67C7-6243-98E2-5F5FA1551CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5C14B-5950-6F4E-B1EE-87A263243A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="640" windowWidth="33600" windowHeight="18880" xr2:uid="{FC58B7D4-609C-5C44-AF56-7D7D48B896A0}"/>
+    <workbookView xWindow="15640" yWindow="3100" windowWidth="33600" windowHeight="18880" xr2:uid="{FC58B7D4-609C-5C44-AF56-7D7D48B896A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="RTX2080" sheetId="3" r:id="rId1"/>
-    <sheet name="macstudio（cpu)" sheetId="1" r:id="rId2"/>
-    <sheet name="macbookpro" sheetId="2" r:id="rId3"/>
+    <sheet name="Yolov5FastAPI" sheetId="4" r:id="rId1"/>
+    <sheet name="RTX2080" sheetId="3" r:id="rId2"/>
+    <sheet name="macstudio（cpu)" sheetId="1" r:id="rId3"/>
+    <sheet name="macbookpro" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="16">
   <si>
     <t>batch size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>infer per frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000x2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,17 +176,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,11 +501,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2A2656-D7D1-174B-AE26-625D3577862B}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>9.6618635654449406E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.24998968362808199</v>
+      </c>
+      <c r="E2">
+        <v>0.24998968362808199</v>
+      </c>
+      <c r="F2">
+        <v>9.6618635654449406E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.18584072113037101</v>
+      </c>
+      <c r="D3">
+        <v>0.47410963773727399</v>
+      </c>
+      <c r="E3">
+        <f>D3/$A$3</f>
+        <v>0.237054818868637</v>
+      </c>
+      <c r="F3">
+        <f>C3/2</f>
+        <v>9.2920360565185503E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B75642F-F093-D541-A78F-8285FC8B226D}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -525,7 +633,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -547,7 +655,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -567,7 +675,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -587,7 +695,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -607,89 +715,89 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2.5632000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f>D6/$A$6</f>
         <v>1.2816000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f>C6/2</f>
         <v>1.8849999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
         <v>2.81E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.6846000000000001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <f t="shared" ref="E7:E9" si="2">D7/$A$6</f>
         <v>0.84230000000000005</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F9" si="3">C7/2</f>
         <v>1.405E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
         <v>1.24E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.67330000000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <f t="shared" si="2"/>
         <v>0.33665</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.2414</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f t="shared" si="2"/>
         <v>0.1207</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>3.8500000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -711,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -731,7 +839,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -751,7 +859,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -771,89 +879,89 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>5.0495999999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f>D14/$A$14</f>
         <v>1.2624</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f>C14/4</f>
         <v>1.755E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>3.2738</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f t="shared" ref="E15:E17" si="6">D15/$A$14</f>
         <v>0.81845000000000001</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f t="shared" ref="F15:F17" si="7">C15/4</f>
         <v>1.1925E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1.3307</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f t="shared" si="6"/>
         <v>0.332675</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f t="shared" si="7"/>
         <v>5.7749999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
         <v>1.04E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.48849999999999999</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="6"/>
         <v>0.122125</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <f t="shared" si="7"/>
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -875,7 +983,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -895,7 +1003,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -915,7 +1023,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -935,89 +1043,89 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="A22" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.1003</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>7.46</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <f>D22/$A$22</f>
         <v>1.2433333333333334</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <f>C22/6</f>
         <v>1.6716666666666668E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>4.8647999999999998</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f t="shared" ref="E23:E25" si="10">D23/$A$22</f>
         <v>0.81079999999999997</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <f t="shared" ref="F23:F25" si="11">C23/6</f>
         <v>1.1366666666666666E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>1.9642999999999999</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="10"/>
         <v>0.3273833333333333</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f t="shared" si="11"/>
         <v>5.4833333333333331E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
         <v>1.34E-2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.74070000000000003</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="10"/>
         <v>0.12345</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f t="shared" si="11"/>
         <v>2.2333333333333333E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>7</v>
       </c>
       <c r="B26" t="s">
@@ -1039,7 +1147,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1167,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1187,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -1099,89 +1207,89 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>8</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
         <v>0.13519999999999999</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>9.8975000000000009</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <f>D30/$A$30</f>
         <v>1.2371875000000001</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <f>C30/8</f>
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>6.4240000000000004</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <f t="shared" ref="E31:E33" si="14">D31/$A$30</f>
         <v>0.80300000000000005</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <f t="shared" ref="F31:F33" si="15">C31/8</f>
         <v>1.085E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
         <v>3.95E-2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>2.6071</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <f t="shared" si="14"/>
         <v>0.3258875</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <f t="shared" si="15"/>
         <v>4.9375E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
         <v>1.66E-2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>0.97419999999999995</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <f t="shared" si="14"/>
         <v>0.12177499999999999</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <f t="shared" si="15"/>
         <v>2.075E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="A34" s="6">
         <v>9</v>
       </c>
       <c r="B34" t="s">
@@ -1203,7 +1311,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1331,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1351,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -1263,640 +1371,85 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>10</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5">
         <v>0.1668</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>12.387</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <f>D38/$A$38</f>
         <v>1.2387000000000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <f>C38/10</f>
         <v>1.668E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
         <v>0.107</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>8.0345999999999993</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <f t="shared" ref="E39:E41" si="18">D39/$A$38</f>
         <v>0.80345999999999995</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <f t="shared" ref="F39:F41" si="19">C39/10</f>
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>3.2823000000000002</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <f t="shared" si="18"/>
         <v>0.32823000000000002</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <f t="shared" si="19"/>
         <v>4.7800000000000004E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
         <v>1.95E-2</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>1.2077</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <f t="shared" si="18"/>
         <v>0.12077</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <f t="shared" si="19"/>
         <v>1.9499999999999999E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4BAE09-3FCA-9948-9239-C2BFBB720BBC}">
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection sqref="A1:F41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="D2">
-        <v>3.27E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="F2">
-        <v>2.1475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0.30180000000000001</v>
-      </c>
-      <c r="D3">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="F3">
-        <v>1.3157000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1.4609000000000001</v>
-      </c>
-      <c r="D6">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.5217000000000001</v>
-      </c>
-      <c r="F6">
-        <v>4.4401000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0.75280000000000002</v>
-      </c>
-      <c r="D7">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.80069999999999997</v>
-      </c>
-      <c r="F7">
-        <v>2.6951000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2.5270999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="E10">
-        <v>2.6154999999999999</v>
-      </c>
-      <c r="F10">
-        <v>6.8531000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1.2855000000000001</v>
-      </c>
-      <c r="D11">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="E11">
-        <v>1.3532</v>
-      </c>
-      <c r="F11">
-        <v>4.1161000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3.0712999999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="E14">
-        <v>3.1848999999999998</v>
-      </c>
-      <c r="F14">
-        <v>8.8728999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="D15">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="E15">
-        <v>1.9276</v>
-      </c>
-      <c r="F15">
-        <v>5.5942999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>4.2708000000000004</v>
-      </c>
-      <c r="D18">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="E18">
-        <v>4.4180999999999999</v>
-      </c>
-      <c r="F18">
-        <v>11.5784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>2.3332000000000002</v>
-      </c>
-      <c r="D19">
-        <v>0.10970000000000001</v>
-      </c>
-      <c r="E19">
-        <v>2.4428999999999998</v>
-      </c>
-      <c r="F19">
-        <v>6.9946999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>4.7157</v>
-      </c>
-      <c r="D22">
-        <v>0.18210000000000001</v>
-      </c>
-      <c r="E22">
-        <v>4.8978000000000002</v>
-      </c>
-      <c r="F22">
-        <v>13.4786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>2.6408</v>
-      </c>
-      <c r="D23">
-        <v>0.1358</v>
-      </c>
-      <c r="E23">
-        <v>2.7766000000000002</v>
-      </c>
-      <c r="F23">
-        <v>8.1974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>5.5865999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.22140000000000001</v>
-      </c>
-      <c r="E26">
-        <v>5.8079000000000001</v>
-      </c>
-      <c r="F26">
-        <v>15.696400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>3.2989000000000002</v>
-      </c>
-      <c r="D27">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="E27">
-        <v>3.4592999999999998</v>
-      </c>
-      <c r="F27">
-        <v>9.7739999999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>6.3520000000000003</v>
-      </c>
-      <c r="D30">
-        <v>0.24829999999999999</v>
-      </c>
-      <c r="E30">
-        <v>6.6002999999999998</v>
-      </c>
-      <c r="F30">
-        <v>18.043900000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>3.5926999999999998</v>
-      </c>
-      <c r="D31">
-        <v>0.1797</v>
-      </c>
-      <c r="E31">
-        <v>3.7724000000000002</v>
-      </c>
-      <c r="F31">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4"/>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4"/>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>7.2839999999999998</v>
-      </c>
-      <c r="D34">
-        <v>0.27760000000000001</v>
-      </c>
-      <c r="E34">
-        <v>7.5617000000000001</v>
-      </c>
-      <c r="F34">
-        <v>20.284199999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>4.1304999999999996</v>
-      </c>
-      <c r="D35">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E35">
-        <v>4.3354999999999997</v>
-      </c>
-      <c r="F35">
-        <v>12.327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>8.3262999999999998</v>
-      </c>
-      <c r="D38">
-        <v>0.3024</v>
-      </c>
-      <c r="E38">
-        <v>8.6287000000000003</v>
-      </c>
-      <c r="F38">
-        <v>22.694500000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>4.7873000000000001</v>
-      </c>
-      <c r="D39">
-        <v>0.22839999999999999</v>
-      </c>
-      <c r="E39">
-        <v>5.0157999999999996</v>
-      </c>
-      <c r="F39">
-        <v>13.8444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1919,6 +1472,561 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4BAE09-3FCA-9948-9239-C2BFBB720BBC}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection sqref="A1:F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="D2">
+        <v>3.27E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F2">
+        <v>2.1475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="D3">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="F3">
+        <v>1.3157000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1.4609000000000001</v>
+      </c>
+      <c r="D6">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.5217000000000001</v>
+      </c>
+      <c r="F6">
+        <v>4.4401000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="D7">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="F7">
+        <v>2.6951000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2.5270999999999999</v>
+      </c>
+      <c r="D10">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.6154999999999999</v>
+      </c>
+      <c r="F10">
+        <v>6.8531000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1.2855000000000001</v>
+      </c>
+      <c r="D11">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.3532</v>
+      </c>
+      <c r="F11">
+        <v>4.1161000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3.0712999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="E14">
+        <v>3.1848999999999998</v>
+      </c>
+      <c r="F14">
+        <v>8.8728999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="D15">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.9276</v>
+      </c>
+      <c r="F15">
+        <v>5.5942999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>4.2708000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="E18">
+        <v>4.4180999999999999</v>
+      </c>
+      <c r="F18">
+        <v>11.5784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2.3332000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="E19">
+        <v>2.4428999999999998</v>
+      </c>
+      <c r="F19">
+        <v>6.9946999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4.7157</v>
+      </c>
+      <c r="D22">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="E22">
+        <v>4.8978000000000002</v>
+      </c>
+      <c r="F22">
+        <v>13.4786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2.6408</v>
+      </c>
+      <c r="D23">
+        <v>0.1358</v>
+      </c>
+      <c r="E23">
+        <v>2.7766000000000002</v>
+      </c>
+      <c r="F23">
+        <v>8.1974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5.5865999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="E26">
+        <v>5.8079000000000001</v>
+      </c>
+      <c r="F26">
+        <v>15.696400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3.2989000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="E27">
+        <v>3.4592999999999998</v>
+      </c>
+      <c r="F27">
+        <v>9.7739999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="E30">
+        <v>6.6002999999999998</v>
+      </c>
+      <c r="F30">
+        <v>18.043900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3.5926999999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.1797</v>
+      </c>
+      <c r="E31">
+        <v>3.7724000000000002</v>
+      </c>
+      <c r="F31">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>7.2839999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="E34">
+        <v>7.5617000000000001</v>
+      </c>
+      <c r="F34">
+        <v>20.284199999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4.1304999999999996</v>
+      </c>
+      <c r="D35">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E35">
+        <v>4.3354999999999997</v>
+      </c>
+      <c r="F35">
+        <v>12.327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>8.3262999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.3024</v>
+      </c>
+      <c r="E38">
+        <v>8.6287000000000003</v>
+      </c>
+      <c r="F38">
+        <v>22.694500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4.7873000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="E39">
+        <v>5.0157999999999996</v>
+      </c>
+      <c r="F39">
+        <v>13.8444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE1DE5-6FCB-9648-9950-EF09EA4983C4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -1956,7 +2064,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1976,25 +2084,25 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2002,25 +2110,25 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -2028,25 +2136,25 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -2054,25 +2162,25 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -2080,25 +2188,25 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>6</v>
       </c>
       <c r="B22" t="s">
@@ -2106,25 +2214,25 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>7</v>
       </c>
       <c r="B26" t="s">
@@ -2132,25 +2240,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="6">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -2158,25 +2266,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="6">
         <v>9</v>
       </c>
       <c r="B34" t="s">
@@ -2184,25 +2292,25 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>10</v>
       </c>
       <c r="B38" t="s">
@@ -2210,19 +2318,19 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>6</v>
       </c>
